--- a/data_output/prism_passive/all_passive_out_elong_msc_SOL_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_SOL_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.042897861507356</v>
+        <v>13.042897803688675</v>
       </c>
       <c r="C2">
-        <v>19.372362224236184</v>
+        <v>19.372362213649666</v>
       </c>
       <c r="D2">
-        <v>-1.2004540069594043</v>
+        <v>-1.2004540416219527</v>
       </c>
       <c r="E2">
-        <v>20.958667685827692</v>
+        <v>20.958667642287679</v>
       </c>
       <c r="F2">
-        <v>-36.832061062187876</v>
+        <v>-36.832061069631749</v>
       </c>
       <c r="G2">
-        <v>28.787919862190222</v>
+        <v>28.787919841842097</v>
       </c>
       <c r="H2">
-        <v>17.906265698802002</v>
+        <v>17.906265659868268</v>
       </c>
       <c r="I2">
-        <v>24.128274814071005</v>
+        <v>24.128274787791497</v>
       </c>
       <c r="J2">
-        <v>27.980882722775789</v>
+        <v>27.980882703817997</v>
       </c>
       <c r="K2">
-        <v>21.388780421235964</v>
+        <v>21.38878040656266</v>
       </c>
       <c r="L2">
-        <v>32.908646420238625</v>
+        <v>32.908646369836703</v>
       </c>
       <c r="M2">
-        <v>16.366852401548215</v>
+        <v>16.366852353971865</v>
       </c>
       <c r="N2">
-        <v>30.309777558764665</v>
+        <v>30.309777498135077</v>
       </c>
       <c r="O2">
-        <v>22.47573543269408</v>
+        <v>22.475735398216329</v>
       </c>
       <c r="P2">
-        <v>14.996813215075008</v>
+        <v>14.996813207091463</v>
       </c>
       <c r="Q2">
-        <v>28.867571913482948</v>
+        <v>28.867571900024075</v>
       </c>
       <c r="R2">
-        <v>16.03776525807325</v>
+        <v>16.037765253660723</v>
       </c>
       <c r="S2">
-        <v>22.661395973153731</v>
+        <v>22.661395950670737</v>
       </c>
       <c r="T2">
-        <v>24.243389194019642</v>
+        <v>24.24338914833794</v>
       </c>
       <c r="U2">
-        <v>35.073538003850388</v>
+        <v>35.073537983806773</v>
       </c>
       <c r="V2">
-        <v>19.294785730816045</v>
+        <v>19.294785722476433</v>
       </c>
       <c r="W2">
-        <v>21.763943845865015</v>
+        <v>21.763943796760259</v>
       </c>
       <c r="X2">
-        <v>28.610010770536547</v>
+        <v>28.610010751415672</v>
       </c>
       <c r="Y2">
-        <v>24.293457319743368</v>
+        <v>24.293457294591235</v>
       </c>
       <c r="Z2">
-        <v>-1.902438892069199</v>
+        <v>-1.9024389100442818</v>
       </c>
       <c r="AA2">
-        <v>41.022653060113981</v>
+        <v>41.022652982710355</v>
       </c>
       <c r="AB2">
-        <v>24.054814101092177</v>
+        <v>24.054814092580273</v>
       </c>
       <c r="AC2">
-        <v>23.154508850480369</v>
+        <v>23.154508858519165</v>
       </c>
       <c r="AD2">
-        <v>19.038153941144287</v>
+        <v>19.038153934286072</v>
       </c>
       <c r="AE2">
-        <v>-1.4705553029600082</v>
+        <v>-1.4705553283135089</v>
       </c>
       <c r="AF2">
-        <v>23.292619730716893</v>
+        <v>23.29261972364796</v>
       </c>
       <c r="AG2">
-        <v>25.363182588784952</v>
+        <v>25.363182550083508</v>
       </c>
       <c r="AH2">
-        <v>19.859232402418797</v>
+        <v>19.859232384196332</v>
       </c>
       <c r="AI2">
-        <v>39.118946566299485</v>
+        <v>39.118946542317616</v>
       </c>
       <c r="AJ2">
-        <v>17.237048176954204</v>
+        <v>17.23704811799206</v>
       </c>
       <c r="AK2">
-        <v>26.808191788303077</v>
+        <v>26.808191747039928</v>
       </c>
       <c r="AL2">
-        <v>28.90408320228903</v>
+        <v>28.904083165120426</v>
       </c>
       <c r="AM2">
-        <v>24.724811315515694</v>
+        <v>24.724811245278545</v>
       </c>
       <c r="AN2">
-        <v>22.865271910991282</v>
+        <v>22.865271862092271</v>
       </c>
       <c r="AO2">
-        <v>24.805269243598218</v>
+        <v>24.805269214650309</v>
       </c>
       <c r="AP2">
-        <v>26.494382572970324</v>
+        <v>26.494382566229035</v>
       </c>
       <c r="AQ2">
-        <v>23.59315271022939</v>
+        <v>23.593152687533347</v>
       </c>
       <c r="AR2">
-        <v>27.299212302115734</v>
+        <v>27.299212280561449</v>
       </c>
       <c r="AS2">
-        <v>30.745177701878333</v>
+        <v>30.745177686409932</v>
       </c>
       <c r="AT2">
-        <v>25.913891423194627</v>
+        <v>25.913891404865211</v>
       </c>
       <c r="AU2">
-        <v>24.571648215059668</v>
+        <v>24.571648212481989</v>
       </c>
       <c r="AV2">
-        <v>15.295385515483872</v>
+        <v>15.29538547923255</v>
       </c>
       <c r="AW2">
-        <v>24.189987524527623</v>
+        <v>24.189987496513709</v>
       </c>
       <c r="AX2">
-        <v>26.087766793688075</v>
+        <v>26.087766751461317</v>
       </c>
       <c r="AY2">
-        <v>29.642544432588238</v>
+        <v>29.642544410542826</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>19.830315635308921</v>
+        <v>19.830315630294308</v>
       </c>
       <c r="C3">
-        <v>23.904417757781857</v>
+        <v>23.904417718141929</v>
       </c>
       <c r="D3">
-        <v>30.0699265565095</v>
+        <v>30.069926532400245</v>
       </c>
       <c r="E3">
-        <v>17.919317497934287</v>
+        <v>17.919317476466688</v>
       </c>
       <c r="F3">
-        <v>10.650240577782768</v>
+        <v>10.65024056324998</v>
       </c>
       <c r="G3">
-        <v>25.013007780332146</v>
+        <v>25.013007749760618</v>
       </c>
       <c r="H3">
-        <v>25.739996498262826</v>
+        <v>25.739996448198013</v>
       </c>
       <c r="I3">
-        <v>24.365044024014935</v>
+        <v>24.365044012896931</v>
       </c>
       <c r="J3">
-        <v>27.585654755379693</v>
+        <v>27.585654728358719</v>
       </c>
       <c r="K3">
-        <v>27.979051764430494</v>
+        <v>27.979051739199463</v>
       </c>
       <c r="L3">
-        <v>55.690148810482413</v>
+        <v>55.69014876263941</v>
       </c>
       <c r="M3">
-        <v>18.279525478784308</v>
+        <v>18.279487250221848</v>
       </c>
       <c r="N3">
-        <v>24.626979997450348</v>
+        <v>24.626979954630144</v>
       </c>
       <c r="O3">
-        <v>13.472937625921276</v>
+        <v>13.472937611358049</v>
       </c>
       <c r="P3">
-        <v>26.937576195679924</v>
+        <v>26.937576147201014</v>
       </c>
       <c r="Q3">
-        <v>16.843639035370586</v>
+        <v>16.843639022239188</v>
       </c>
       <c r="R3">
-        <v>21.538492628693234</v>
+        <v>21.538492596044875</v>
       </c>
       <c r="S3">
-        <v>20.13053061672548</v>
+        <v>20.130530602345459</v>
       </c>
       <c r="T3">
-        <v>23.363001749295449</v>
+        <v>23.363001715461735</v>
       </c>
       <c r="U3">
-        <v>19.052157782169019</v>
+        <v>19.052157758589971</v>
       </c>
       <c r="V3">
-        <v>39.785371469204904</v>
+        <v>39.785371460992053</v>
       </c>
       <c r="W3">
-        <v>21.86932150045044</v>
+        <v>21.869321456718012</v>
       </c>
       <c r="X3">
-        <v>20.151704357517076</v>
+        <v>20.151704350086959</v>
       </c>
       <c r="Y3">
-        <v>17.632798770683792</v>
+        <v>17.632798751841705</v>
       </c>
       <c r="Z3">
-        <v>17.069489080166278</v>
+        <v>17.069489066924831</v>
       </c>
       <c r="AA3">
-        <v>35.342430064575922</v>
+        <v>35.342430025246642</v>
       </c>
       <c r="AB3">
-        <v>22.282341347497749</v>
+        <v>22.282341341240198</v>
       </c>
       <c r="AC3">
-        <v>32.334510997975144</v>
+        <v>32.334510973220716</v>
       </c>
       <c r="AD3">
-        <v>24.525262413208168</v>
+        <v>24.525262370077257</v>
       </c>
       <c r="AE3">
-        <v>23.744375058615077</v>
+        <v>23.744375052933293</v>
       </c>
       <c r="AF3">
-        <v>29.056283716670947</v>
+        <v>29.056283695659289</v>
       </c>
       <c r="AG3">
-        <v>33.701642460531559</v>
+        <v>33.701642420137034</v>
       </c>
       <c r="AH3">
-        <v>35.182422366853984</v>
+        <v>35.182422376044656</v>
       </c>
       <c r="AI3">
-        <v>29.043477280677706</v>
+        <v>29.043477246633103</v>
       </c>
       <c r="AJ3">
-        <v>37.282942877677215</v>
+        <v>37.282942805706625</v>
       </c>
       <c r="AK3">
-        <v>52.548840532898481</v>
+        <v>52.548840488890932</v>
       </c>
       <c r="AL3">
-        <v>32.346895831252425</v>
+        <v>32.346895798144431</v>
       </c>
       <c r="AM3">
-        <v>22.804604156204505</v>
+        <v>22.804604100960091</v>
       </c>
       <c r="AN3">
-        <v>15.555345089876539</v>
+        <v>15.555345050701192</v>
       </c>
       <c r="AO3">
-        <v>31.746731228125611</v>
+        <v>31.746731198879729</v>
       </c>
       <c r="AP3">
-        <v>23.290663068472327</v>
+        <v>23.290663039962112</v>
       </c>
       <c r="AQ3">
-        <v>24.074217812459096</v>
+        <v>24.074217777215551</v>
       </c>
       <c r="AR3">
-        <v>29.19925668980818</v>
+        <v>29.199256674260198</v>
       </c>
       <c r="AS3">
-        <v>24.330660783854967</v>
+        <v>24.330660760991009</v>
       </c>
       <c r="AT3">
-        <v>17.94965039021281</v>
+        <v>17.949650367467228</v>
       </c>
       <c r="AU3">
-        <v>30.854912021898485</v>
+        <v>30.854911987958985</v>
       </c>
       <c r="AV3">
-        <v>28.674039010096948</v>
+        <v>28.674038902138051</v>
       </c>
       <c r="AW3">
-        <v>25.178606703008484</v>
+        <v>25.178606623382223</v>
       </c>
       <c r="AX3">
-        <v>23.17316790070339</v>
+        <v>23.173167871521628</v>
       </c>
       <c r="AY3">
-        <v>21.952698809065112</v>
+        <v>21.952698777590911</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_msc_SOL_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_SOL_submax_2.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>13.042897803688675</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>19.372362213649666</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-1.2004540416219527</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>20.958667642287679</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-36.832061069631749</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>28.787919841842097</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>17.906265659868268</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>24.128274787791497</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>27.980882703817997</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>21.38878040656266</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>32.908646369836703</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>16.366852353971865</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>30.309777498135077</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>22.475735398216329</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>14.996813207091463</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>28.867571900024075</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>16.037765253660723</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>22.661395950670737</v>
+        <v>22.661429280670745</v>
       </c>
       <c r="T2">
         <v>24.24338914833794</v>
@@ -576,147 +465,144 @@
         <v>19.294785722476433</v>
       </c>
       <c r="W2">
-        <v>21.763943796760259</v>
+        <v>21.763977126760267</v>
       </c>
       <c r="X2">
-        <v>28.610010751415672</v>
+        <v>28.609977421415664</v>
       </c>
       <c r="Y2">
         <v>24.293457294591235</v>
       </c>
       <c r="Z2">
-        <v>-1.9024389100442818</v>
+        <v>-1.9024722400442897</v>
       </c>
       <c r="AA2">
-        <v>41.022652982710355</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>24.054814092580273</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>23.154508858519165</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>19.038153934286072</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>-1.4705553283135089</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>23.29261972364796</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>25.363182550083508</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>19.859232384196332</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>39.118946542317616</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>17.23704811799206</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>26.808191747039928</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>28.904083165120426</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>24.724811245278545</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>22.865271862092271</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>24.805269214650309</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>26.494382566229035</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>23.593152687533347</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>27.299212280561449</v>
+        <v>27.299178950561441</v>
       </c>
       <c r="AS2">
         <v>30.745177686409932</v>
       </c>
       <c r="AT2">
-        <v>25.913891404865211</v>
+        <v>25.913924734865219</v>
       </c>
       <c r="AU2">
-        <v>24.571648212481989</v>
+        <v>24.571614882481981</v>
       </c>
       <c r="AV2">
-        <v>15.29538547923255</v>
+        <v>15.295418809232558</v>
       </c>
       <c r="AW2">
-        <v>24.189987496513709</v>
+        <v>24.189954166513701</v>
       </c>
       <c r="AX2">
-        <v>26.087766751461317</v>
+        <v>26.087733421461309</v>
       </c>
       <c r="AY2">
-        <v>29.642544410542826</v>
+        <v>29.642511080542818</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>19.830315630294308</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>23.904417718141929</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>30.069926532400245</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>17.919317476466688</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>10.65024056324998</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>25.013007749760618</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>25.739996448198013</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>24.365044012896931</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>27.585654728358719</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>27.979051739199463</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>55.69014876263941</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>18.279487250221848</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>24.626979954630144</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>13.472937611358049</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>26.937576147201014</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>16.843639022239188</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>21.538492596044875</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>20.130530602345459</v>
@@ -728,94 +614,94 @@
         <v>19.052157758589971</v>
       </c>
       <c r="V3">
-        <v>39.785371460992053</v>
+        <v>39.785338130992045</v>
       </c>
       <c r="W3">
-        <v>21.869321456718012</v>
+        <v>21.869288126718033</v>
       </c>
       <c r="X3">
-        <v>20.151704350086959</v>
+        <v>20.151737680086967</v>
       </c>
       <c r="Y3">
-        <v>17.632798751841705</v>
+        <v>43.662832081841714</v>
       </c>
       <c r="Z3">
-        <v>17.069489066924831</v>
+        <v>22.512855736924848</v>
       </c>
       <c r="AA3">
-        <v>35.342430025246642</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>22.282341341240198</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>32.334510973220716</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>24.525262370077257</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>23.744375052933293</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>29.056283695659289</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>33.701642420137034</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>35.182422376044656</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>29.043477246633103</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>37.282942805706625</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>52.548840488890932</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>32.346895798144431</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>22.804604100960091</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>15.555345050701192</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>31.746731198879729</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>23.290663039962112</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>24.074217777215551</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>29.199256674260198</v>
+        <v>29.199290004260149</v>
       </c>
       <c r="AS3">
-        <v>24.330660760991009</v>
+        <v>24.330627430991001</v>
       </c>
       <c r="AT3">
         <v>17.949650367467228</v>
       </c>
       <c r="AU3">
-        <v>30.854911987958985</v>
+        <v>30.854878657958977</v>
       </c>
       <c r="AV3">
-        <v>28.674038902138051</v>
+        <v>28.674005572138043</v>
       </c>
       <c r="AW3">
         <v>25.178606623382223</v>
       </c>
       <c r="AX3">
-        <v>23.173167871521628</v>
+        <v>27.346467871521639</v>
       </c>
       <c r="AY3">
-        <v>21.952698777590911</v>
+        <v>64.372665447590919</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_msc_SOL_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_SOL_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.042931191507364</v>
+        <v>22.475702068216322</v>
       </c>
       <c r="C2">
-        <v>25.679028894236183</v>
+        <v>16.037765253660723</v>
       </c>
       <c r="D2">
-        <v>-1.2004873369594122</v>
+        <v>22.865305192092251</v>
       </c>
       <c r="E2">
-        <v>20.9587010158277</v>
+        <v>23.593186017533355</v>
       </c>
       <c r="F2">
         <v>-36.832061062187876</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>19.830315635308921</v>
+        <v>13.472937611358049</v>
       </c>
       <c r="C3">
-        <v>31.791117757781876</v>
+        <v>21.538525926044883</v>
       </c>
       <c r="D3">
-        <v>30.069959886509508</v>
+        <v>15.5553783807012</v>
       </c>
       <c r="E3">
-        <v>17.919284167934308</v>
+        <v>24.040499745711713</v>
       </c>
       <c r="F3">
         <v>10.650240577782768</v>

--- a/data_output/prism_passive/all_passive_out_elong_msc_SOL_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_SOL_submax_2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.042931191507364</v>
+        <v>10.923144168135082</v>
       </c>
       <c r="C2">
-        <v>25.679028894236183</v>
+        <v>22.475702068216322</v>
       </c>
       <c r="D2">
-        <v>-1.2004873369594122</v>
+        <v>28.944811245278572</v>
       </c>
       <c r="E2">
-        <v>20.9587010158277</v>
+        <v>22.865305192092251</v>
       </c>
       <c r="F2">
         <v>-36.832061062187876</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>19.830315635308921</v>
+        <v>8.8236132846301416</v>
       </c>
       <c r="C3">
-        <v>31.791117757781876</v>
+        <v>13.472937611358049</v>
       </c>
       <c r="D3">
-        <v>30.069959886509508</v>
+        <v>39.914604100960105</v>
       </c>
       <c r="E3">
-        <v>17.919284167934308</v>
+        <v>15.5553783807012</v>
       </c>
       <c r="F3">
         <v>10.650240577782768</v>

--- a/data_output/prism_passive/all_passive_out_elong_msc_SOL_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_SOL_submax_2.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>13.042931133688683</v>
+      </c>
+      <c r="C2">
+        <v>25.679028883649664</v>
+      </c>
+      <c r="D2">
+        <v>-1.2004873716219606</v>
+      </c>
+      <c r="E2">
+        <v>20.958700972287687</v>
+      </c>
+      <c r="F2">
+        <v>-36.832061069631749</v>
+      </c>
+      <c r="G2">
+        <v>28.787953171842105</v>
+      </c>
+      <c r="H2">
+        <v>17.906265659868268</v>
+      </c>
+      <c r="I2">
+        <v>24.128241457791489</v>
+      </c>
+      <c r="J2">
+        <v>27.980916033818005</v>
+      </c>
+      <c r="K2">
+        <v>42.432113736562656</v>
+      </c>
+      <c r="L2">
+        <v>32.908679699836711</v>
+      </c>
+      <c r="M2">
+        <v>16.366852353971865</v>
+      </c>
+      <c r="N2">
         <v>10.923144168135082</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>22.475702068216322</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>14.996813207091463</v>
+      </c>
+      <c r="Q2">
+        <v>54.210938570024098</v>
+      </c>
+      <c r="R2">
+        <v>16.037765253660723</v>
+      </c>
+      <c r="S2">
+        <v>22.661429280670745</v>
+      </c>
+      <c r="T2">
+        <v>24.24338914833794</v>
+      </c>
+      <c r="U2">
+        <v>35.073537983806773</v>
+      </c>
+      <c r="V2">
+        <v>19.294785722476433</v>
+      </c>
+      <c r="W2">
+        <v>21.763977126760267</v>
+      </c>
+      <c r="X2">
+        <v>28.609977421415664</v>
+      </c>
+      <c r="Y2">
+        <v>24.293457294591235</v>
+      </c>
+      <c r="Z2">
+        <v>-1.9024722400442897</v>
+      </c>
+      <c r="AA2">
+        <v>41.022686312710334</v>
+      </c>
+      <c r="AB2">
+        <v>14.594780762580285</v>
+      </c>
+      <c r="AC2">
+        <v>23.154475528519157</v>
+      </c>
+      <c r="AD2">
+        <v>19.038120604286092</v>
+      </c>
+      <c r="AE2">
+        <v>-1.4705553283135089</v>
+      </c>
+      <c r="AF2">
+        <v>23.29258639364798</v>
+      </c>
+      <c r="AG2">
+        <v>25.363215880083516</v>
+      </c>
+      <c r="AH2">
+        <v>19.859199054196324</v>
+      </c>
+      <c r="AI2">
+        <v>39.118946542317616</v>
+      </c>
+      <c r="AJ2">
+        <v>19.027014787992073</v>
+      </c>
+      <c r="AK2">
+        <v>26.808191747039928</v>
+      </c>
+      <c r="AL2">
+        <v>28.904049835120418</v>
+      </c>
+      <c r="AM2">
         <v>28.944811245278572</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>22.865305192092251</v>
       </c>
-      <c r="F2">
-        <v>-36.832061062187876</v>
-      </c>
-      <c r="G2">
-        <v>28.78795319219023</v>
-      </c>
-      <c r="H2">
-        <v>17.906265698802002</v>
-      </c>
-      <c r="I2">
-        <v>24.128241484070998</v>
-      </c>
-      <c r="J2">
-        <v>27.980916052775797</v>
-      </c>
-      <c r="K2">
-        <v>42.43211375123596</v>
-      </c>
-      <c r="L2">
-        <v>32.908679750238633</v>
-      </c>
-      <c r="M2">
-        <v>16.366852401548215</v>
-      </c>
-      <c r="N2">
-        <v>10.92314422876467</v>
-      </c>
-      <c r="O2">
-        <v>22.475702102694072</v>
-      </c>
-      <c r="P2">
-        <v>14.996813215075008</v>
-      </c>
-      <c r="Q2">
-        <v>54.210938583482971</v>
-      </c>
-      <c r="R2">
-        <v>16.03776525807325</v>
-      </c>
-      <c r="S2">
-        <v>22.661429303153739</v>
-      </c>
-      <c r="T2">
-        <v>24.243389194019642</v>
-      </c>
-      <c r="U2">
-        <v>35.073538003850388</v>
-      </c>
-      <c r="V2">
-        <v>19.294785730816045</v>
-      </c>
-      <c r="W2">
-        <v>21.763977175865023</v>
-      </c>
-      <c r="X2">
-        <v>28.609977440536539</v>
-      </c>
-      <c r="Y2">
-        <v>24.293457319743368</v>
-      </c>
-      <c r="Z2">
-        <v>-1.902472222069207</v>
-      </c>
-      <c r="AA2">
-        <v>41.022686390113961</v>
-      </c>
-      <c r="AB2">
-        <v>14.594780771092189</v>
-      </c>
-      <c r="AC2">
-        <v>23.154475520480361</v>
-      </c>
-      <c r="AD2">
-        <v>19.038120611144308</v>
-      </c>
-      <c r="AE2">
-        <v>-1.4705553029600082</v>
-      </c>
-      <c r="AF2">
-        <v>23.292586400716914</v>
-      </c>
-      <c r="AG2">
-        <v>25.36321591878496</v>
-      </c>
-      <c r="AH2">
-        <v>19.859199072418789</v>
-      </c>
-      <c r="AI2">
-        <v>39.118946566299485</v>
-      </c>
-      <c r="AJ2">
-        <v>19.027014846954216</v>
-      </c>
-      <c r="AK2">
-        <v>26.808191788303077</v>
-      </c>
-      <c r="AL2">
-        <v>28.904049872289022</v>
-      </c>
-      <c r="AM2">
-        <v>28.944811315515722</v>
-      </c>
-      <c r="AN2">
-        <v>22.865305240991262</v>
-      </c>
       <c r="AO2">
-        <v>24.80523591359821</v>
+        <v>24.805235884650301</v>
       </c>
       <c r="AP2">
-        <v>26.494382572970324</v>
+        <v>26.494382566229035</v>
       </c>
       <c r="AQ2">
-        <v>23.593186040229398</v>
+        <v>23.593186017533355</v>
       </c>
       <c r="AR2">
-        <v>27.299178972115726</v>
+        <v>27.299178950561441</v>
       </c>
       <c r="AS2">
-        <v>30.745177701878333</v>
+        <v>30.745177686409932</v>
       </c>
       <c r="AT2">
-        <v>25.913924753194635</v>
+        <v>25.913924734865219</v>
       </c>
       <c r="AU2">
-        <v>24.57161488505966</v>
+        <v>24.571614882481981</v>
       </c>
       <c r="AV2">
-        <v>15.29541884548388</v>
+        <v>15.295418809232558</v>
       </c>
       <c r="AW2">
-        <v>24.189954194527616</v>
+        <v>24.189954166513701</v>
       </c>
       <c r="AX2">
-        <v>26.087733463688068</v>
+        <v>26.087733421461309</v>
       </c>
       <c r="AY2">
-        <v>29.64251110258823</v>
+        <v>29.642511080542818</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>19.830315630294308</v>
+      </c>
+      <c r="C3">
+        <v>31.791117718141948</v>
+      </c>
+      <c r="D3">
+        <v>30.069959862400253</v>
+      </c>
+      <c r="E3">
+        <v>17.919284146466708</v>
+      </c>
+      <c r="F3">
+        <v>10.65024056324998</v>
+      </c>
+      <c r="G3">
+        <v>25.012974419760639</v>
+      </c>
+      <c r="H3">
+        <v>25.739963118198034</v>
+      </c>
+      <c r="I3">
+        <v>24.365010682896923</v>
+      </c>
+      <c r="J3">
+        <v>40.345654728358738</v>
+      </c>
+      <c r="K3">
+        <v>27.979051739199463</v>
+      </c>
+      <c r="L3">
+        <v>55.69014876263941</v>
+      </c>
+      <c r="M3">
+        <v>18.279520580221856</v>
+      </c>
+      <c r="N3">
         <v>8.8236132846301416</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>13.472937611358049</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>26.937576147201014</v>
+      </c>
+      <c r="Q3">
+        <v>16.84360569223918</v>
+      </c>
+      <c r="R3">
+        <v>21.538525926044883</v>
+      </c>
+      <c r="S3">
+        <v>20.130530602345459</v>
+      </c>
+      <c r="T3">
+        <v>23.363001715461735</v>
+      </c>
+      <c r="U3">
+        <v>19.052157758589971</v>
+      </c>
+      <c r="V3">
+        <v>39.785338130992045</v>
+      </c>
+      <c r="W3">
+        <v>21.869288126718033</v>
+      </c>
+      <c r="X3">
+        <v>20.151737680086967</v>
+      </c>
+      <c r="Y3">
+        <v>43.662832081841714</v>
+      </c>
+      <c r="Z3">
+        <v>22.512855736924848</v>
+      </c>
+      <c r="AA3">
+        <v>35.342396695246634</v>
+      </c>
+      <c r="AB3">
+        <v>22.752308011240189</v>
+      </c>
+      <c r="AC3">
+        <v>32.334544303220724</v>
+      </c>
+      <c r="AD3">
+        <v>24.525229040077249</v>
+      </c>
+      <c r="AE3">
+        <v>23.744341722933285</v>
+      </c>
+      <c r="AF3">
+        <v>29.056283695659289</v>
+      </c>
+      <c r="AG3">
+        <v>33.701642420137034</v>
+      </c>
+      <c r="AH3">
+        <v>35.16622929418179</v>
+      </c>
+      <c r="AI3">
+        <v>31.983443916633092</v>
+      </c>
+      <c r="AJ3">
+        <v>37.282942805706625</v>
+      </c>
+      <c r="AK3">
+        <v>52.548873818890939</v>
+      </c>
+      <c r="AL3">
+        <v>32.346895798144431</v>
+      </c>
+      <c r="AM3">
         <v>39.914604100960105</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>15.5553783807012</v>
       </c>
-      <c r="F3">
-        <v>10.650240577782768</v>
-      </c>
-      <c r="G3">
-        <v>25.012974450332166</v>
-      </c>
-      <c r="H3">
-        <v>25.739963168262847</v>
-      </c>
-      <c r="I3">
-        <v>24.365010694014927</v>
-      </c>
-      <c r="J3">
-        <v>40.345654755379712</v>
-      </c>
-      <c r="K3">
-        <v>27.979051764430494</v>
-      </c>
-      <c r="L3">
-        <v>55.690148810482413</v>
-      </c>
-      <c r="M3">
-        <v>18.279558808784316</v>
-      </c>
-      <c r="N3">
-        <v>8.8236133274503459</v>
-      </c>
-      <c r="O3">
-        <v>13.472937625921276</v>
-      </c>
-      <c r="P3">
-        <v>26.937576195679924</v>
-      </c>
-      <c r="Q3">
-        <v>16.843605705370578</v>
-      </c>
-      <c r="R3">
-        <v>21.538525958693242</v>
-      </c>
-      <c r="S3">
-        <v>20.13053061672548</v>
-      </c>
-      <c r="T3">
-        <v>23.363001749295449</v>
-      </c>
-      <c r="U3">
-        <v>19.052157782169019</v>
-      </c>
-      <c r="V3">
-        <v>39.785338139204896</v>
-      </c>
-      <c r="W3">
-        <v>21.86928817045046</v>
-      </c>
-      <c r="X3">
-        <v>20.151737687517084</v>
-      </c>
-      <c r="Y3">
-        <v>43.662832100683801</v>
-      </c>
-      <c r="Z3">
-        <v>22.512855750166295</v>
-      </c>
-      <c r="AA3">
-        <v>35.342396734575914</v>
-      </c>
-      <c r="AB3">
-        <v>22.752308017497739</v>
-      </c>
-      <c r="AC3">
-        <v>32.334544327975152</v>
-      </c>
-      <c r="AD3">
-        <v>24.52522908320816</v>
-      </c>
-      <c r="AE3">
-        <v>23.744341728615069</v>
-      </c>
-      <c r="AF3">
-        <v>29.056283716670947</v>
-      </c>
-      <c r="AG3">
-        <v>33.701642460531559</v>
-      </c>
-      <c r="AH3">
-        <v>35.166229313432325</v>
-      </c>
-      <c r="AI3">
-        <v>31.983443950677696</v>
-      </c>
-      <c r="AJ3">
-        <v>37.282942877677215</v>
-      </c>
-      <c r="AK3">
-        <v>52.548873862898489</v>
-      </c>
-      <c r="AL3">
-        <v>32.346895831252425</v>
-      </c>
-      <c r="AM3">
-        <v>39.914604156204518</v>
-      </c>
-      <c r="AN3">
-        <v>15.555378419876547</v>
-      </c>
       <c r="AO3">
-        <v>31.746764558125619</v>
+        <v>31.746764528879737</v>
       </c>
       <c r="AP3">
-        <v>23.290629738472319</v>
+        <v>23.290629709962104</v>
       </c>
       <c r="AQ3">
-        <v>24.040499781737253</v>
+        <v>24.040499745711713</v>
       </c>
       <c r="AR3">
-        <v>29.199290019808132</v>
+        <v>29.199290004260149</v>
       </c>
       <c r="AS3">
-        <v>24.330627453854959</v>
+        <v>24.330627430991001</v>
       </c>
       <c r="AT3">
-        <v>17.94965039021281</v>
+        <v>17.949650367467228</v>
       </c>
       <c r="AU3">
-        <v>30.854878691898477</v>
+        <v>30.854878657958977</v>
       </c>
       <c r="AV3">
-        <v>28.67400568009694</v>
+        <v>28.674005572138043</v>
       </c>
       <c r="AW3">
-        <v>25.178606703008484</v>
+        <v>25.178606623382223</v>
       </c>
       <c r="AX3">
-        <v>27.346467900703402</v>
+        <v>27.346467871521639</v>
       </c>
       <c r="AY3">
-        <v>64.37266547906512</v>
+        <v>64.372665447590919</v>
       </c>
     </row>
   </sheetData>
